--- a/NBA_2019_20_Player_Stats.xlsx
+++ b/NBA_2019_20_Player_Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Documents\Projects\NBA_salary_analysis_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A52BA-6CD8-4AAC-A259-CD37323D5F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55011CF4-A701-4938-87D9-F6B35E995183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
